--- a/questionData.xlsx
+++ b/questionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\camera\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F5098-7F80-4B2E-B8C7-7A4DB3F140B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2442523E-66C9-4E37-8B63-777290C64605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C139F98-F53B-472D-8B80-52E16BF29283}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C139F98-F53B-472D-8B80-52E16BF29283}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="11" r:id="rId1"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF637D4C-7466-4312-8B92-BD90317593F1}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="305" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="305" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>137</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>130</v>
@@ -7163,8 +7163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2AEC48-BD05-41A5-A898-327A86585EE9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="192" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7223,7 +7223,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>9</v>

--- a/questionData.xlsx
+++ b/questionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\camera\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3137310-31F9-4924-B89F-A24434F735EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB10F1EB-DA88-4DCC-A572-9AD8D3A6F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1454,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>59</v>
@@ -1550,10 +1550,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>96</v>
@@ -1781,5 +1781,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionData.xlsx
+++ b/questionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\camera\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06430A60-98FB-4816-A801-3E11C8ADDC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB520C5-C3BE-4BF9-9BFD-529CCF6C43C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>activeScence</t>
   </si>
@@ -881,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1374,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1419,7 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,21 +1695,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1770,9 +1756,6 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
